--- a/EXCEL Output/EMPN0366_PragyaGautam.xlsx
+++ b/EXCEL Output/EMPN0366_PragyaGautam.xlsx
@@ -48,8 +48,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,41 +133,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1" headerRowCount="1">
-  <autoFilter ref="A1:C1"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Measure Name"/>
-    <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D6" headerRowCount="1">
-  <autoFilter ref="A1:D6"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F6" headerRowCount="1">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Relationships" displayName="Relationships" ref="A1:G1" headerRowCount="1">
-  <autoFilter ref="A1:G1"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="From Table"/>
-    <tableColumn id="2" name="From Column"/>
-    <tableColumn id="3" name="To Table"/>
-    <tableColumn id="4" name="To Column"/>
-    <tableColumn id="5" name="State"/>
-    <tableColumn id="6" name="Direction"/>
-    <tableColumn id="7" name="Cardinality"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,41 +431,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Measure Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Measure Expression</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Measure Description</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No measures present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -495,133 +465,256 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Table Source</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Modification</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Employee Details</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Desktop\0_Assignment for PowerBi workshop Feb 25, 2023\Data-Sheet.xlsx"</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
+    #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),
+    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"First Name ", type text}, {"Last Name ", type text}, {"EmployeeCodeAbbrevaition", type text}, {"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
+    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
+    #"Replaced Value" = Table.ReplaceValue(#"Removed Blank Rows",null,"abc(001)",Replacer.ReplaceValue,{"Last Name "}),
+    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value",null,"XY",Replacer.ReplaceValue,{"EmployeeCodeAbbrevaition"}),
+    #"Replaced Value2" = Table.ReplaceValue(#"Replaced Value1",null,1234,Replacer.ReplaceValue,{"North"}),
+    #"Replaced Value3" = Table.ReplaceValue(#"Replaced Value2",null,5555,Replacer.ReplaceValue,{"South"}),
+    #"Replaced Value4" = Table.ReplaceValue(#"Replaced Value3",null,2222,Replacer.ReplaceValue,{"East"}),
+    #"Replaced Value5" = Table.ReplaceValue(#"Replaced Value4",null,3333,Replacer.ReplaceValue,{"West"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Replaced Value5",{{"EmployeeCodeAbbrevaition", "Employee Code Abbrevaition"}}),
+    #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "Last Name ", Splitter.SplitTextByDelimiter("(", QuoteStyle.Csv), {"Last Name .1", "Last Name .2"}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"Last Name .1", type text}, {"Last Name .2", type text}}),
+    #"Replaced Value6" = Table.ReplaceValue(#"Changed Type1",")","",Replacer.ReplaceText,{"Last Name .2"}),
+    #"Renamed Columns1" = Table.RenameColumns(#"Replaced Value6",{{"Last Name .2", "Employee id"}, {"Last Name .1", "Last Name"}}),
+    #"Merged Columns" = Table.CombineColumns(#"Renamed Columns1",{"Employee id", "Employee Code Abbrevaition"},Combiner.CombineTextByDelimiter("-", QuoteStyle.None),"Employee Code ID"),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Merged Columns",{{"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}})
+in
+    #"Changed Type2"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>January Data</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Desktop\0_Assignment for PowerBi workshop Feb 25, 2023\Data-Sheet.xlsx"</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"date-23_Sheet" = Source{[Item="date-23",Kind="Sheet"]}[Data],
+    #"Promoted Headers" = Table.PromoteHeaders(#"date-23_Sheet", [PromoteAllScalars=true]),
+    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Date", type date}, {"Month", type text}, {"Quarter ", type text}, {"Year ", Int64.Type}}),
+    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
+    #"Appended Query" = Table.Combine({#"Removed Blank Rows", #"February Data"}),
+    #"Pivoted Column" = Table.Pivot(#"Appended Query", List.Distinct(#"Appended Query"[#"Quarter "]), "Quarter ", "Month"),
+    #"Unpivoted Columns" = Table.UnpivotOtherColumns(#"Pivoted Column", {"Date", "Year "}, "Attribute", "Value"),
+    #"Renamed Columns" = Table.RenameColumns(#"Unpivoted Columns",{{"Value", "Month"}, {"Attribute", "Quater"}})
+in
+    #"Renamed Columns"</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Territory</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Desktop\0_Assignment for PowerBi workshop Feb 25, 2023\Data-Sheet.xlsx"</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Promoted Headers" = Table.PromoteHeaders(dean_Territory234_Sheet, [PromoteAllScalars=true]),
+    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Territroy ID", Int64.Type}, {"Region Name", type text}, {"Country", type text}, {"Group", type text}}),
+    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null})))
+in
+    #"Removed Blank Rows"</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>February Data</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Desktop\0_Assignment for PowerBi workshop Feb 25, 2023\Data-Sheet.xlsx"</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"date-sheet-213_Sheet" = Source{[Item="date-sheet-213",Kind="Sheet"]}[Data],
+    #"Promoted Headers" = Table.PromoteHeaders(#"date-sheet-213_Sheet", [PromoteAllScalars=true]),
+    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Date", type date}, {"Month", type text}, {"Quarter ", type text}, {"Year ", Int64.Type}}),
+    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null})))
+in
+    #"Removed Blank Rows"</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Employee Details Transpose</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Desktop\0_Assignment for PowerBi workshop Feb 25, 2023\Data-Sheet.xlsx"</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
+    #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),
+    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"First Name ", type text}, {"Last Name ", type text}, {"EmployeeCodeAbbrevaition", type text}, {"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
+    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
+    #"Replaced Value" = Table.ReplaceValue(#"Removed Blank Rows",null,"abc(001)",Replacer.ReplaceValue,{"Last Name "}),
+    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value",null,"XY",Replacer.ReplaceValue,{"EmployeeCodeAbbrevaition"}),
+    #"Replaced Value2" = Table.ReplaceValue(#"Replaced Value1",null,1234,Replacer.ReplaceValue,{"North"}),
+    #"Replaced Value3" = Table.ReplaceValue(#"Replaced Value2",null,5555,Replacer.ReplaceValue,{"South"}),
+    #"Replaced Value4" = Table.ReplaceValue(#"Replaced Value3",null,2222,Replacer.ReplaceValue,{"East"}),
+    #"Replaced Value5" = Table.ReplaceValue(#"Replaced Value4",null,3333,Replacer.ReplaceValue,{"West"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Replaced Value5",{{"EmployeeCodeAbbrevaition", "Employee Code Abbrevaition"}}),
+    #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "Last Name ", Splitter.SplitTextByDelimiter("(", QuoteStyle.Csv), {"Last Name .1", "Last Name .2"}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"Last Name .1", type text}, {"Last Name .2", type text}}),
+    #"Replaced Value6" = Table.ReplaceValue(#"Changed Type1",")","",Replacer.ReplaceText,{"Last Name .2"}),
+    #"Renamed Columns1" = Table.RenameColumns(#"Replaced Value6",{{"Last Name .2", "Employee id"}, {"Last Name .1", "Last Name"}}),
+    #"Merged Columns" = Table.CombineColumns(#"Renamed Columns1",{"Employee id", "Employee Code Abbrevaition"},Combiner.CombineTextByDelimiter("-", QuoteStyle.None),"Employee Code ID"),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Merged Columns",{{"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
+    #"Transposed Table" = Table.Transpose(#"Changed Type2")
+in
+    #"Transposed Table"</t>
         </is>
       </c>
     </row>
@@ -634,60 +727,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>From Table</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>From Column</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>To Table</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>To Column</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Cardinality</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No relationships present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/EXCEL Output/EMPN0366_PragyaGautam.xlsx
+++ b/EXCEL Output/EMPN0366_PragyaGautam.xlsx
@@ -539,25 +539,24 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
-    #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),
-    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"First Name ", type text}, {"Last Name ", type text}, {"EmployeeCodeAbbrevaition", type text}, {"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
-    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
-    #"Replaced Value" = Table.ReplaceValue(#"Removed Blank Rows",null,"abc(001)",Replacer.ReplaceValue,{"Last Name "}),
-    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value",null,"XY",Replacer.ReplaceValue,{"EmployeeCodeAbbrevaition"}),
-    #"Replaced Value2" = Table.ReplaceValue(#"Replaced Value1",null,1234,Replacer.ReplaceValue,{"North"}),
-    #"Replaced Value3" = Table.ReplaceValue(#"Replaced Value2",null,5555,Replacer.ReplaceValue,{"South"}),
-    #"Replaced Value4" = Table.ReplaceValue(#"Replaced Value3",null,2222,Replacer.ReplaceValue,{"East"}),
-    #"Replaced Value5" = Table.ReplaceValue(#"Replaced Value4",null,3333,Replacer.ReplaceValue,{"West"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Replaced Value5",{{"EmployeeCodeAbbrevaition", "Employee Code Abbrevaition"}}),
-    #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "Last Name ", Splitter.SplitTextByDelimiter("(", QuoteStyle.Csv), {"Last Name .1", "Last Name .2"}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"Last Name .1", type text}, {"Last Name .2", type text}}),
-    #"Replaced Value6" = Table.ReplaceValue(#"Changed Type1",")","",Replacer.ReplaceText,{"Last Name .2"}),
-    #"Renamed Columns1" = Table.RenameColumns(#"Replaced Value6",{{"Last Name .2", "Employee id"}, {"Last Name .1", "Last Name"}}),
-    #"Merged Columns" = Table.CombineColumns(#"Renamed Columns1",{"Employee id", "Employee Code Abbrevaition"},Combiner.CombineTextByDelimiter("-", QuoteStyle.None),"Employee Code ID"),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Merged Columns",{{"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}})
-in
-    #"Changed Type2"</t>
+          <t xml:space="preserve">1. #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
+2. #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),
+3. #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"First Name ", type text}, {"Last Name ", type text}, {"EmployeeCodeAbbrevaition", type text}, {"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
+4. #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
+5. #"Replaced Value" = Table.ReplaceValue(#"Removed Blank Rows",null,"abc(001)",Replacer.ReplaceValue,{"Last Name "}),
+6. #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value",null,"XY",Replacer.ReplaceValue,{"EmployeeCodeAbbrevaition"}),
+7. #"Replaced Value2" = Table.ReplaceValue(#"Replaced Value1",null,1234,Replacer.ReplaceValue,{"North"}),
+8. #"Replaced Value3" = Table.ReplaceValue(#"Replaced Value2",null,5555,Replacer.ReplaceValue,{"South"}),
+9. #"Replaced Value4" = Table.ReplaceValue(#"Replaced Value3",null,2222,Replacer.ReplaceValue,{"East"}),
+10. #"Replaced Value5" = Table.ReplaceValue(#"Replaced Value4",null,3333,Replacer.ReplaceValue,{"West"}),
+11. #"Renamed Columns" = Table.RenameColumns(#"Replaced Value5",{{"EmployeeCodeAbbrevaition", "Employee Code Abbrevaition"}}),
+12. #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "Last Name ", Splitter.SplitTextByDelimiter("(", QuoteStyle.Csv), {"Last Name .1", "Last Name .2"}),
+13. #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"Last Name .1", type text}, {"Last Name .2", type text}}),
+14. #"Replaced Value6" = Table.ReplaceValue(#"Changed Type1",")","",Replacer.ReplaceText,{"Last Name .2"}),
+15. #"Renamed Columns1" = Table.RenameColumns(#"Replaced Value6",{{"Last Name .2", "Employee id"}, {"Last Name .1", "Last Name"}}),
+16. #"Merged Columns" = Table.CombineColumns(#"Renamed Columns1",{"Employee id", "Employee Code Abbrevaition"},Combiner.CombineTextByDelimiter("-", QuoteStyle.None),"Employee Code ID"),
+17. #"Changed Type2" = Table.TransformColumnTypes(#"Merged Columns",{{"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}})
+</t>
         </is>
       </c>
     </row>
@@ -587,16 +586,15 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"date-23_Sheet" = Source{[Item="date-23",Kind="Sheet"]}[Data],
-    #"Promoted Headers" = Table.PromoteHeaders(#"date-23_Sheet", [PromoteAllScalars=true]),
-    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Date", type date}, {"Month", type text}, {"Quarter ", type text}, {"Year ", Int64.Type}}),
-    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
-    #"Appended Query" = Table.Combine({#"Removed Blank Rows", #"February Data"}),
-    #"Pivoted Column" = Table.Pivot(#"Appended Query", List.Distinct(#"Appended Query"[#"Quarter "]), "Quarter ", "Month"),
-    #"Unpivoted Columns" = Table.UnpivotOtherColumns(#"Pivoted Column", {"Date", "Year "}, "Attribute", "Value"),
-    #"Renamed Columns" = Table.RenameColumns(#"Unpivoted Columns",{{"Value", "Month"}, {"Attribute", "Quater"}})
-in
-    #"Renamed Columns"</t>
+          <t xml:space="preserve">1. #"date-23_Sheet" = Source{[Item="date-23",Kind="Sheet"]}[Data],
+2. #"Promoted Headers" = Table.PromoteHeaders(#"date-23_Sheet", [PromoteAllScalars=true]),
+3. #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Date", type date}, {"Month", type text}, {"Quarter ", type text}, {"Year ", Int64.Type}}),
+4. #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
+5. #"Appended Query" = Table.Combine({#"Removed Blank Rows", #"February Data"}),
+6. #"Pivoted Column" = Table.Pivot(#"Appended Query", List.Distinct(#"Appended Query"[#"Quarter "]), "Quarter ", "Month"),
+7. #"Unpivoted Columns" = Table.UnpivotOtherColumns(#"Pivoted Column", {"Date", "Year "}, "Attribute", "Value"),
+8. #"Renamed Columns" = Table.RenameColumns(#"Unpivoted Columns",{{"Value", "Month"}, {"Attribute", "Quater"}})
+</t>
         </is>
       </c>
     </row>
@@ -626,11 +624,10 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Promoted Headers" = Table.PromoteHeaders(dean_Territory234_Sheet, [PromoteAllScalars=true]),
-    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Territroy ID", Int64.Type}, {"Region Name", type text}, {"Country", type text}, {"Group", type text}}),
-    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null})))
-in
-    #"Removed Blank Rows"</t>
+          <t xml:space="preserve">1. #"Promoted Headers" = Table.PromoteHeaders(dean_Territory234_Sheet, [PromoteAllScalars=true]),
+2. #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Territroy ID", Int64.Type}, {"Region Name", type text}, {"Country", type text}, {"Group", type text}}),
+3. #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null})))
+</t>
         </is>
       </c>
     </row>
@@ -660,12 +657,11 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"date-sheet-213_Sheet" = Source{[Item="date-sheet-213",Kind="Sheet"]}[Data],
-    #"Promoted Headers" = Table.PromoteHeaders(#"date-sheet-213_Sheet", [PromoteAllScalars=true]),
-    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Date", type date}, {"Month", type text}, {"Quarter ", type text}, {"Year ", Int64.Type}}),
-    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null})))
-in
-    #"Removed Blank Rows"</t>
+          <t xml:space="preserve">1. #"date-sheet-213_Sheet" = Source{[Item="date-sheet-213",Kind="Sheet"]}[Data],
+2. #"Promoted Headers" = Table.PromoteHeaders(#"date-sheet-213_Sheet", [PromoteAllScalars=true]),
+3. #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Date", type date}, {"Month", type text}, {"Quarter ", type text}, {"Year ", Int64.Type}}),
+4. #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null})))
+</t>
         </is>
       </c>
     </row>
@@ -695,26 +691,25 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
-    #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),
-    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"First Name ", type text}, {"Last Name ", type text}, {"EmployeeCodeAbbrevaition", type text}, {"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
-    #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
-    #"Replaced Value" = Table.ReplaceValue(#"Removed Blank Rows",null,"abc(001)",Replacer.ReplaceValue,{"Last Name "}),
-    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value",null,"XY",Replacer.ReplaceValue,{"EmployeeCodeAbbrevaition"}),
-    #"Replaced Value2" = Table.ReplaceValue(#"Replaced Value1",null,1234,Replacer.ReplaceValue,{"North"}),
-    #"Replaced Value3" = Table.ReplaceValue(#"Replaced Value2",null,5555,Replacer.ReplaceValue,{"South"}),
-    #"Replaced Value4" = Table.ReplaceValue(#"Replaced Value3",null,2222,Replacer.ReplaceValue,{"East"}),
-    #"Replaced Value5" = Table.ReplaceValue(#"Replaced Value4",null,3333,Replacer.ReplaceValue,{"West"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Replaced Value5",{{"EmployeeCodeAbbrevaition", "Employee Code Abbrevaition"}}),
-    #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "Last Name ", Splitter.SplitTextByDelimiter("(", QuoteStyle.Csv), {"Last Name .1", "Last Name .2"}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"Last Name .1", type text}, {"Last Name .2", type text}}),
-    #"Replaced Value6" = Table.ReplaceValue(#"Changed Type1",")","",Replacer.ReplaceText,{"Last Name .2"}),
-    #"Renamed Columns1" = Table.RenameColumns(#"Replaced Value6",{{"Last Name .2", "Employee id"}, {"Last Name .1", "Last Name"}}),
-    #"Merged Columns" = Table.CombineColumns(#"Renamed Columns1",{"Employee id", "Employee Code Abbrevaition"},Combiner.CombineTextByDelimiter("-", QuoteStyle.None),"Employee Code ID"),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Merged Columns",{{"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
-    #"Transposed Table" = Table.Transpose(#"Changed Type2")
-in
-    #"Transposed Table"</t>
+          <t xml:space="preserve">1. #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
+2. #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),
+3. #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"First Name ", type text}, {"Last Name ", type text}, {"EmployeeCodeAbbrevaition", type text}, {"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
+4. #"Removed Blank Rows" = Table.SelectRows(#"Changed Type", each not List.IsEmpty(List.RemoveMatchingItems(Record.FieldValues(_), {"", null}))),
+5. #"Replaced Value" = Table.ReplaceValue(#"Removed Blank Rows",null,"abc(001)",Replacer.ReplaceValue,{"Last Name "}),
+6. #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value",null,"XY",Replacer.ReplaceValue,{"EmployeeCodeAbbrevaition"}),
+7. #"Replaced Value2" = Table.ReplaceValue(#"Replaced Value1",null,1234,Replacer.ReplaceValue,{"North"}),
+8. #"Replaced Value3" = Table.ReplaceValue(#"Replaced Value2",null,5555,Replacer.ReplaceValue,{"South"}),
+9. #"Replaced Value4" = Table.ReplaceValue(#"Replaced Value3",null,2222,Replacer.ReplaceValue,{"East"}),
+10. #"Replaced Value5" = Table.ReplaceValue(#"Replaced Value4",null,3333,Replacer.ReplaceValue,{"West"}),
+11. #"Renamed Columns" = Table.RenameColumns(#"Replaced Value5",{{"EmployeeCodeAbbrevaition", "Employee Code Abbrevaition"}}),
+12. #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "Last Name ", Splitter.SplitTextByDelimiter("(", QuoteStyle.Csv), {"Last Name .1", "Last Name .2"}),
+13. #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"Last Name .1", type text}, {"Last Name .2", type text}}),
+14. #"Replaced Value6" = Table.ReplaceValue(#"Changed Type1",")","",Replacer.ReplaceText,{"Last Name .2"}),
+15. #"Renamed Columns1" = Table.RenameColumns(#"Replaced Value6",{{"Last Name .2", "Employee id"}, {"Last Name .1", "Last Name"}}),
+16. #"Merged Columns" = Table.CombineColumns(#"Renamed Columns1",{"Employee id", "Employee Code Abbrevaition"},Combiner.CombineTextByDelimiter("-", QuoteStyle.None),"Employee Code ID"),
+17. #"Changed Type2" = Table.TransformColumnTypes(#"Merged Columns",{{"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
+18. #"Transposed Table" = Table.Transpose(#"Changed Type2")
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/EMPN0366_PragyaGautam.xlsx
+++ b/EXCEL Output/EMPN0366_PragyaGautam.xlsx
@@ -133,15 +133,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F6" headerRowCount="1">
-  <autoFilter ref="A1:F6"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +476,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,10 +506,15 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -534,10 +541,15 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>#"123Employee_Sheet"</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
 2. #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),
@@ -581,10 +593,15 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
+          <t>#"date-23_Sheet"</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"date-23_Sheet" = Source{[Item="date-23",Kind="Sheet"]}[Data],
 2. #"Promoted Headers" = Table.PromoteHeaders(#"date-23_Sheet", [PromoteAllScalars=true]),
@@ -619,10 +636,15 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>dean_Territory234_Sheet</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Promoted Headers" = Table.PromoteHeaders(dean_Territory234_Sheet, [PromoteAllScalars=true]),
 2. #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",{{"Territroy ID", Int64.Type}, {"Region Name", type text}, {"Country", type text}, {"Group", type text}}),
@@ -652,10 +674,15 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>#"date-sheet-213_Sheet"</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"date-sheet-213_Sheet" = Source{[Item="date-sheet-213",Kind="Sheet"]}[Data],
 2. #"Promoted Headers" = Table.PromoteHeaders(#"date-sheet-213_Sheet", [PromoteAllScalars=true]),
@@ -686,10 +713,15 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>#"123Employee_Sheet"</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"123Employee_Sheet" = Source{[Item="123Employee",Kind="Sheet"]}[Data],
 2. #"Promoted Headers" = Table.PromoteHeaders(#"123Employee_Sheet", [PromoteAllScalars=true]),

--- a/EXCEL Output/EMPN0366_PragyaGautam.xlsx
+++ b/EXCEL Output/EMPN0366_PragyaGautam.xlsx
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:H6" headerRowCount="1">
+  <autoFilter ref="A1:H6"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -143,6 +143,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +482,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,6 +521,11 @@
           <t>Modification</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -541,7 +548,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>#"123Employee_Sheet"</t>
+          <t>"123Employee_Sheet"</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -571,6 +578,11 @@
 </t>
         </is>
       </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>This code is taking a sheet called "123Employee" and changing it in multiple ways. It is promoting all of the headers, changing the types of some of the columns, removing any blank rows, replacing some null values with specific text or numbers, splitting a column by a delimiter, combining two columns together, and finally changing the types again. The end goal of this code is to have a sheet populated with specific data, the data being types such as text and integers, with no blank values and formatted correctly.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -593,7 +605,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>#"date-23_Sheet"</t>
+          <t>"date-23_Sheet"</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -614,6 +626,11 @@
 </t>
         </is>
       </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>This is a set of steps that converts a data source ("date-23_Sheet") into a different form for easier use. First, it promotes headers (which means making each row in the data source a column heading). It then changes the data types for certain columns (like one for dates and one for integers). After that, it removes any rows that are empty. Then it combines the data from this source with another one ("February Data"). Then it pivots the data by grouping data together based on one column, unpivots the data by turning a single column into multiple columns, and lastly it renames certain columns. The end result is a data source located in #"Renamed Columns".</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -652,6 +669,11 @@
 </t>
         </is>
       </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>This code takes a source of data called “dean_Territory234_Sheet” which is a Sheet, and then it separates the headings and labels the different items in the sheet (called Promoted Headers). It then changes the data type of those items to integers and text, respectively. Lastly, it removes any blank rows, resulting in a clean sheet of organized data.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -674,7 +696,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>#"date-sheet-213_Sheet"</t>
+          <t>"date-sheet-213_Sheet"</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -691,6 +713,11 @@
 </t>
         </is>
       </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>This is code written in a programming languge to take a data source called "date-sheet-213" stored in a Sheet format and make some changes to it. It will change the "Date" column to store dates, the "Month" and "Quarter" columns to store text, and the "Year" column to store numbers. After making these changes to the data, it will also remove any empty or blank rows. The result of this code will be the data source, with the changes made, with any blank rows removed.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -713,7 +740,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>#"123Employee_Sheet"</t>
+          <t>"123Employee_Sheet"</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -742,6 +769,11 @@
 17. #"Changed Type2" = Table.TransformColumnTypes(#"Merged Columns",{{"North", Int64.Type}, {"South", Int64.Type}, {"East", Int64.Type}, {"West", Int64.Type}}),
 18. #"Transposed Table" = Table.Transpose(#"Changed Type2")
 </t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>This code is manipulating data from a source that contains information about employees. It is promoting the headers, which means it is making sure they can be read properly by a computer. It is also changing the types of the data (from text to numbers, for example) and replacing empty values with specific values, in order to ensure that the data is accurate and usable. The code is also merging two columns together and transposing the table, which means switching the rows and columns to create a new table. After all is said and done, the data will be in a new table and formatted in a way that is usable for whatever purpose it was needed for.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/EMPN0366_PragyaGautam.xlsx
+++ b/EXCEL Output/EMPN0366_PragyaGautam.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This code is taking a sheet called "123Employee" and changing it in multiple ways. It is promoting all of the headers, changing the types of some of the columns, removing any blank rows, replacing some null values with specific text or numbers, splitting a column by a delimiter, combining two columns together, and finally changing the types again. The end goal of this code is to have a sheet populated with specific data, the data being types such as text and integers, with no blank values and formatted correctly.</t>
+          <t>This is a process to organize a spreadsheet of employee information. First, the source of the employee data is specified. The headers of the spreadsheet are then "promoted" from its first row, so that the data can be understood and identified. The employee information is changed to the correct type, such as text or numbers, and any blank rows in the data are removed. Any missing values are then replaced with specific values, such as "abc(001)". The "last name" column is split into two parts, and any values in the "last name" column are replaced. The employee code abbreviation and employee ID are then merged into a single column called "Employee Code ID". Finally, the data is changed to the appropriate data type.</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>This is a set of steps that converts a data source ("date-23_Sheet") into a different form for easier use. First, it promotes headers (which means making each row in the data source a column heading). It then changes the data types for certain columns (like one for dates and one for integers). After that, it removes any rows that are empty. Then it combines the data from this source with another one ("February Data"). Then it pivots the data by grouping data together based on one column, unpivots the data by turning a single column into multiple columns, and lastly it renames certain columns. The end result is a data source located in #"Renamed Columns".</t>
+          <t>This is a set of commands that will take a dataset, convert some of the data types to make them easier to read, remove blank rows, combine it with another dataset, rearrange it into a format that makes it easier to read, and rename two columns so that the name reflects the new data. The result is another dataset which makes the data easier to read and analyze.</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>This code takes a source of data called “dean_Territory234_Sheet” which is a Sheet, and then it separates the headings and labels the different items in the sheet (called Promoted Headers). It then changes the data type of those items to integers and text, respectively. Lastly, it removes any blank rows, resulting in a clean sheet of organized data.</t>
+          <t>This command creates a table called #"Removed Blank Rows" by taking data from a source called dean_Territory234_Sheet and assigning types (like Int64.Type or type text) to certain columns (like "Territroy ID" or "Group"). Before creating the table it removes any blank rows from the data.</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>This is code written in a programming languge to take a data source called "date-sheet-213" stored in a Sheet format and make some changes to it. It will change the "Date" column to store dates, the "Month" and "Quarter" columns to store text, and the "Year" column to store numbers. After making these changes to the data, it will also remove any empty or blank rows. The result of this code will be the data source, with the changes made, with any blank rows removed.</t>
+          <t>This code changes the data formatting of a spreadsheet called 'date-sheet-213'. All of the data is placed into a table, and then the headers of the table are promoted. Then, the type of each column is changed so that the date and month fields are formatted as date and text respectively. Finally, any blank rows are removed.</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>This code is manipulating data from a source that contains information about employees. It is promoting the headers, which means it is making sure they can be read properly by a computer. It is also changing the types of the data (from text to numbers, for example) and replacing empty values with specific values, in order to ensure that the data is accurate and usable. The code is also merging two columns together and transposing the table, which means switching the rows and columns to create a new table. After all is said and done, the data will be in a new table and formatted in a way that is usable for whatever purpose it was needed for.</t>
+          <t>This code is taking a data source (123Employee Sheet) and making various changes to it. It is promoting headers, changing the type of various columns, replacing empty cells with text, combining two columns of data (Employee ID and Employee Code Abbrevaition), and finally, transposing the table. In other words, it is taking a set of data and making changes to the structure or values of that data in order to make it easier to read and analyze.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/EMPN0366_PragyaGautam.xlsx
+++ b/EXCEL Output/EMPN0366_PragyaGautam.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This is a process to organize a spreadsheet of employee information. First, the source of the employee data is specified. The headers of the spreadsheet are then "promoted" from its first row, so that the data can be understood and identified. The employee information is changed to the correct type, such as text or numbers, and any blank rows in the data are removed. Any missing values are then replaced with specific values, such as "abc(001)". The "last name" column is split into two parts, and any values in the "last name" column are replaced. The employee code abbreviation and employee ID are then merged into a single column called "Employee Code ID". Finally, the data is changed to the appropriate data type.</t>
+          <t>This describes a process of manipulating a data set from a "123Employee_Sheet" document. First, the headers of the table are moved from the data rows to the top of the table. Then, the types of the different columns such as ‘First Name’, ‘Last Name’, ‘EmployeeCodeAbbrevaition’, and the four directions (North, South, East, West) are changed from their default data type to a specific type such as text or a number. After that, all empty rows are removed and any empty fields in the document, such as ‘Last Name’, ‘Employee Code Abbrevaition’, ‘North’, ‘South’, ‘East’, and ‘West’, are replaced with a specific value, whether it be a text string or a number. Then the rows in the table are split by a delimiter, and renamed for clarity. Finally, all the data is merged and the types are changed to the appropriate ones. At the end, the data is returned in a "Changed Type2" table.</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>This is a set of commands that will take a dataset, convert some of the data types to make them easier to read, remove blank rows, combine it with another dataset, rearrange it into a format that makes it easier to read, and rename two columns so that the name reflects the new data. The result is another dataset which makes the data easier to read and analyze.</t>
+          <t>This code is combining data from two tables, converting the data types, cleaning out any blank rows, and then rearranging the information. After this is done, the code is finally renaming the columns. The goal of this code is to organize the data in a way that can be more easily read and understood.</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>This command creates a table called #"Removed Blank Rows" by taking data from a source called dean_Territory234_Sheet and assigning types (like Int64.Type or type text) to certain columns (like "Territroy ID" or "Group"). Before creating the table it removes any blank rows from the data.</t>
+          <t>This line of code is taking the data from a sheet called "dean_Territory234" in a source and promoting the headers, changing the type of each header to one of three types (an integer, text, or text), and then removing any rows that have blank or null values in them. The goal is to make sure the data is formatted in the correct way so that it can be used.</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>This code changes the data formatting of a spreadsheet called 'date-sheet-213'. All of the data is placed into a table, and then the headers of the table are promoted. Then, the type of each column is changed so that the date and month fields are formatted as date and text respectively. Finally, any blank rows are removed.</t>
+          <t>This code is transforming a table of data, titled 'date-sheet-213'. It first promotes any scalar values found in the table, which ensures that the relationships between the columns and rows of the table remain intact. It then changes the type of three of the columns from 'Date', 'Month', and 'Quarter' to the date format, and 'Year' is changed to type Int64. Lastly, any blank cell values within the table are removed. The output is the final table of data after the transformations have been made.</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>This code is taking a data source (123Employee Sheet) and making various changes to it. It is promoting headers, changing the type of various columns, replacing empty cells with text, combining two columns of data (Employee ID and Employee Code Abbrevaition), and finally, transposing the table. In other words, it is taking a set of data and making changes to the structure or values of that data in order to make it easier to read and analyze.</t>
+          <t>This code is taking a source file of employee information called "123Employee_Sheet" and organizing it into a table. It is organizing the data into columns and replacing any empty values with predetermined values, such as "abc(001)", "XY", 1234, 5555, 2222, and 3333. Then it is combining the data into columns, such as "Employee Code Abbreviation" combined with "Employee id" to create the new column "Employee Code ID". Finally, it is transposing the table to switch the rows and columns, so that the columns are now the rows and the rows are now the columns.</t>
         </is>
       </c>
     </row>
